--- a/관리산출물/관리산출물PMP PSP/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
+++ b/관리산출물/관리산출물PMP PSP/PSP/문성혁/신수동크러셔_psp_20140424_문성혁.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workbench\sinsudong-crusher-home\PSP\문성혁\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeniss/Desktop/workspace/sinsudong-crusher/관리산출물/관리산출물PMP PSP/PSP/문성혁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F53903-E29E-482B-8E0D-84EF86681391}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599BD7F-998F-CD4E-A47D-1EF6AA1F0067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문성혁" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -87,9 +87,6 @@
     <t>팀프로젝트(Project Planning) 발표자료 검토 및 피드백 제시</t>
   </si>
   <si>
-    <t>Github 기본 세팅 및 사용 가이드 데모영상 제작(1)</t>
-  </si>
-  <si>
     <t>Github 기본 세팅 및 사용 가이드 데모영상 제작(2)</t>
   </si>
   <si>
@@ -119,6 +116,110 @@
   </si>
   <si>
     <t>SAD 추천 알고리즘 개발 및 코드 개선</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI를 바탕으로 프론트 서버 디렉토리 구축 및 필요 라이브러리 조사</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 라이브러리 평가 및 도입하고 helper 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 화면 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 화면 관련 API 연동 테스트 작업 및 파라미터 조정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 제작 및 form 스케치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 중 직접선택 페이지 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지역 추천 페이지 중 추천선택 페이지 제작 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 관련 파이썬 flask 서버 별도 배포</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 관련 파이썬 flask 서버 별도 배포(2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 관련 파이썬 flask 서버 별도 배포(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 중 추천선택 페이지 관련 form validation 로직 강화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 중 추천선택 페이지 관련 form validation 로직 강화(2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 피드 화면 GUI 뼈대 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 피드 화면 좋아요 및 즐겨찾기 버튼 GUI 및 알고리즘 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 피드 화면 GUI 수정 및 보충 작업</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 리스트 화면 GUI 제작 및 페이지 전환 알고리즘 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 아이템 상세 화면 GUI 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 아이템 상세 화면 노출 방식 및 API 테스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 API 테스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 API 테스트(2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github 기본 세팅 및 사용 가이드 데모영상 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 페이지 API 테스트(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출 방식 및 개별 항목 detail information API 관련 버그 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 추천 관련 API 버그 수정 (클라이언트 파트)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 UX/UI 강화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 클라이언트 서버 피드백 반영 및 서버 배포 자동화 구성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +231,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="AM/PM\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,6 +279,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -220,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +367,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,16 +756,16 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="6" max="6" width="77.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="9" max="9" width="40.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -735,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:E37" si="0">(C6-B6)*1440-D6</f>
+        <f t="shared" ref="E6:E36" si="0">(C6-B6)*1440-D6</f>
         <v>90</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -767,7 +878,7 @@
       </c>
       <c r="H7" s="14">
         <f>SUM(E6:E127)</f>
-        <v>852.00000000000057</v>
+        <v>4387.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -851,7 +962,7 @@
         <v>50.000000000001101</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
@@ -872,7 +983,7 @@
         <v>29.999999999999574</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
@@ -893,7 +1004,7 @@
         <v>43.000000000001286</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
@@ -914,7 +1025,7 @@
         <v>2.0000000000001528</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
@@ -935,7 +1046,7 @@
         <v>139.99999999999994</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
@@ -956,7 +1067,7 @@
         <v>20.000000000000053</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
@@ -977,7 +1088,7 @@
         <v>24.999999999999751</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -998,7 +1109,7 @@
         <v>10.000000000000071</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
@@ -1019,7 +1130,7 @@
         <v>165.00000000000011</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
@@ -1040,333 +1151,533 @@
         <v>180</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="17">
+        <v>43770</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="17">
+        <v>43771</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>195.00000000000011</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="17">
+        <v>43772</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D23" s="9">
         <v>0</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="17">
+        <v>43776</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="17">
+        <v>43777</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D25" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>255.00000000000011</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="17">
+        <v>43779</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.92361111111111116</v>
+      </c>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>70.000000000000071</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="17">
+        <v>43781</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.99305555555555547</v>
+      </c>
       <c r="D27" s="9">
         <v>0</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="11"/>
+        <v>49.999999999999822</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="17">
+        <v>43784</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D28" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="17">
+        <v>43790</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D29" s="9">
         <v>0</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="17">
+        <v>43791</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D30" s="9">
         <v>0</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="17">
+        <v>43792</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="17">
+        <v>43793</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D32" s="9">
         <v>0</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="11"/>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="17">
+        <v>43789</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D33" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>165.00000000000011</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="17">
+        <v>43797</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D34" s="9">
         <v>0</v>
       </c>
       <c r="E34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="11"/>
+        <v>165.00000000000006</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="17">
+        <v>43798</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D35" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>145.00000000000006</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="17">
+        <v>43799</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D36" s="9">
         <v>0</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="11"/>
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="17">
+        <v>43800</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D37" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="11"/>
+        <f>(C37-B37)*1440-D37</f>
+        <v>210.00000000000006</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="17">
+        <v>43801</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D38" s="9">
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" ref="E38:E69" si="2">(C38-B38)*1440-D38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="11"/>
+        <f>(C38-B38)*1440-D38</f>
+        <v>105.00000000000011</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="17">
+        <v>43802</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="11"/>
+        <f t="shared" ref="E39:E69" si="2">(C39-B39)*1440-D39</f>
+        <v>180</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="17">
+        <v>43803</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="17">
+        <v>43804</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D41" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E41" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>29.999999999999943</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="17">
+        <v>43805</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D42" s="9">
         <v>0</v>
       </c>
       <c r="E42" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="17">
+        <v>43806</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D43" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="17">
+        <v>43807</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="11"/>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="17">
+        <v>43808</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D45" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="11"/>
+        <v>585.00000000000011</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
       <c r="A46" s="11"/>
